--- a/IT-3.xlsx
+++ b/IT-3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 8:37:53 AM</t>
+    <t>Report generated on: 7/14/2024, 4:33:31 PM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>["PS"]</t>
+  </si>
+  <si>
+    <t>["lenient checking","not bad, but syllabus time pe khatam nhi karti"]</t>
   </si>
   <si>
     <t>Section 2</t>
@@ -314,9 +317,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,60 +878,60 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="11">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>36</v>
+      <c r="E27" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>15</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>172</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>41</v>
+      <c r="E30" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="13">
         <v>42</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="12">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="D31" s="13">
         <v>20</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>44</v>
+      <c r="E31" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -950,7 +953,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>38</v>
@@ -962,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,7 +987,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -1001,10 +1004,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="10">
         <v>15</v>
@@ -1013,35 +1016,35 @@
         <v>13</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="13">
-        <v>5</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="B39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="11">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11">
         <v>1</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>54</v>
+      <c r="E39" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>20</v>
@@ -1057,36 +1060,36 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <v>4</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <v>63</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>57</v>
+      <c r="E41" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="13">
         <v>5</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="13">
         <v>3</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1109,10 +1112,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="10">
         <v>15</v>
@@ -1121,52 +1124,52 @@
         <v>13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="11">
+        <v>13</v>
+      </c>
+      <c r="D45" s="11">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>36</v>
+      <c r="E45" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="13">
         <v>43</v>
       </c>
-      <c r="C48" s="12">
-        <v>43</v>
-      </c>
-      <c r="D48" s="12">
+      <c r="D48" s="13">
         <v>24</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>26</v>
@@ -1182,42 +1185,42 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <v>10</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="11">
         <v>2</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="13">
         <v>5</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="13">
         <v>3</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>38</v>
@@ -1229,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,10 +1254,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1269,7 +1272,7 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1290,59 +1293,59 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="13">
         <v>3</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="13">
         <v>2</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>67</v>
+      <c r="E58" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="A59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="11">
         <v>83</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="11">
         <v>14</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>69</v>
+      <c r="E59" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="11">
+        <v>13</v>
+      </c>
+      <c r="D60" s="11">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
-        <v>36</v>
+      <c r="E60" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>29</v>

--- a/IT-3.xlsx
+++ b/IT-3.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 7/14/2024, 4:33:31 PM</t>
+    <t>Report generated on: 7/15/2024, 6:59:40 AM</t>
   </si>
   <si>
     <t>Just Avoid: If anyone found sharing of screenshot then that person id will be banned permanentally from kiit-connect and if anyone report about that person who has shared the screenshot can be rewarded Premium Membership and Some gift.</t>
@@ -317,9 +317,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>39</v>
@@ -918,19 +918,19 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>42</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>20</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1033,10 +1033,10 @@
         <v>54</v>
       </c>
       <c r="C39" s="11">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D39" s="11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>55</v>
@@ -1077,19 +1077,19 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="11">
         <v>5</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="11">
         <v>3</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>39</v>
@@ -1151,19 +1151,19 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <v>43</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="11">
         <v>24</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1178,43 +1178,43 @@
         <v>14</v>
       </c>
       <c r="D49" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="13">
         <v>10</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="13">
         <v>2</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <v>5</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="11">
         <v>3</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1293,36 +1293,36 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="11">
         <v>3</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="11">
         <v>2</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="13">
         <v>83</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="13">
         <v>14</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>39</v>
